--- a/payfast/relatorio.xlsx
+++ b/payfast/relatorio.xlsx
@@ -5,51 +5,53 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet222 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet222 2" sheetId="2" r:id="rId2"/>
+    <sheet name="avaliacoes" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>string</t>
+    <t>Friday, November 22, 2019 5:15 PM</t>
+  </si>
+  <si>
+    <t>Data e Hora</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>Estrelas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0800"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0800"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,56 +63,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1" s="1">
-        <f>A1 + B1</f>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="b">
-        <v>true</v>
+    <row r="4" spans="3:6">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>